--- a/SchedulingData/dynamic14/pso/scheduling2_5.xlsx
+++ b/SchedulingData/dynamic14/pso/scheduling2_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,116 +462,116 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>230.16</v>
+        <v>237.42</v>
       </c>
       <c r="D2" t="n">
-        <v>288.32</v>
+        <v>283.66</v>
       </c>
       <c r="E2" t="n">
-        <v>12.308</v>
+        <v>12.304</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>212.96</v>
+        <v>283.66</v>
       </c>
       <c r="D3" t="n">
-        <v>283.86</v>
+        <v>341.86</v>
       </c>
       <c r="E3" t="n">
-        <v>11.304</v>
+        <v>9.584</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>201.36</v>
+        <v>200.96</v>
       </c>
       <c r="D4" t="n">
-        <v>244.88</v>
+        <v>282.02</v>
       </c>
       <c r="E4" t="n">
-        <v>15.532</v>
+        <v>15.308</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>276.78</v>
+        <v>282.02</v>
       </c>
       <c r="D5" t="n">
-        <v>336.62</v>
+        <v>313.5</v>
       </c>
       <c r="E5" t="n">
-        <v>12.428</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>214.64</v>
+        <v>225.12</v>
       </c>
       <c r="D6" t="n">
-        <v>260.7</v>
+        <v>280.1</v>
       </c>
       <c r="E6" t="n">
-        <v>14.48</v>
+        <v>12.18</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>260.7</v>
+        <v>232.46</v>
       </c>
       <c r="D7" t="n">
-        <v>333.8</v>
+        <v>286.88</v>
       </c>
       <c r="E7" t="n">
-        <v>10.76</v>
+        <v>10.972</v>
       </c>
     </row>
     <row r="8">
@@ -580,17 +580,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>336.62</v>
+        <v>266.26</v>
       </c>
       <c r="D8" t="n">
-        <v>383.06</v>
+        <v>309.82</v>
       </c>
       <c r="E8" t="n">
-        <v>8.423999999999999</v>
+        <v>12.588</v>
       </c>
     </row>
     <row r="9">
@@ -599,17 +599,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>333.8</v>
+        <v>225.5</v>
       </c>
       <c r="D9" t="n">
-        <v>396.4</v>
+        <v>276.48</v>
       </c>
       <c r="E9" t="n">
-        <v>6.14</v>
+        <v>14.552</v>
       </c>
     </row>
     <row r="10">
@@ -618,112 +618,112 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>396.4</v>
+        <v>276.48</v>
       </c>
       <c r="D10" t="n">
-        <v>455.66</v>
+        <v>358.68</v>
       </c>
       <c r="E10" t="n">
-        <v>3.324</v>
+        <v>9.932</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>288.32</v>
+        <v>341.86</v>
       </c>
       <c r="D11" t="n">
-        <v>402.02</v>
+        <v>390.36</v>
       </c>
       <c r="E11" t="n">
-        <v>7.508</v>
+        <v>5.864</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>205.46</v>
+        <v>309.82</v>
       </c>
       <c r="D12" t="n">
-        <v>271.86</v>
+        <v>362.26</v>
       </c>
       <c r="E12" t="n">
-        <v>14.484</v>
+        <v>9.464</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>383.06</v>
+        <v>358.68</v>
       </c>
       <c r="D13" t="n">
-        <v>429.04</v>
+        <v>455.28</v>
       </c>
       <c r="E13" t="n">
-        <v>5.456</v>
+        <v>6.852</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>283.86</v>
+        <v>286.88</v>
       </c>
       <c r="D14" t="n">
-        <v>341.9</v>
+        <v>353.68</v>
       </c>
       <c r="E14" t="n">
-        <v>8.6</v>
+        <v>6.892</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>402.02</v>
+        <v>280.1</v>
       </c>
       <c r="D15" t="n">
-        <v>477.58</v>
+        <v>337.7</v>
       </c>
       <c r="E15" t="n">
-        <v>3.532</v>
+        <v>9.02</v>
       </c>
     </row>
     <row r="16">
@@ -732,169 +732,169 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>244.88</v>
+        <v>390.36</v>
       </c>
       <c r="D16" t="n">
-        <v>295.64</v>
+        <v>427.72</v>
       </c>
       <c r="E16" t="n">
-        <v>12.076</v>
+        <v>3.268</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>341.9</v>
+        <v>313.5</v>
       </c>
       <c r="D17" t="n">
-        <v>399.12</v>
+        <v>359.64</v>
       </c>
       <c r="E17" t="n">
-        <v>4.008</v>
+        <v>9.316000000000001</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>429.04</v>
+        <v>359.64</v>
       </c>
       <c r="D18" t="n">
-        <v>474.14</v>
+        <v>418.72</v>
       </c>
       <c r="E18" t="n">
-        <v>3.056</v>
+        <v>6.508</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>455.66</v>
+        <v>362.26</v>
       </c>
       <c r="D19" t="n">
-        <v>522.5599999999999</v>
+        <v>413.32</v>
       </c>
       <c r="E19" t="n">
-        <v>0.244</v>
+        <v>5.988</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>522.5599999999999</v>
+        <v>413.32</v>
       </c>
       <c r="D20" t="n">
-        <v>628.47</v>
+        <v>473.62</v>
       </c>
       <c r="E20" t="n">
-        <v>30</v>
+        <v>2.068</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>295.64</v>
+        <v>473.62</v>
       </c>
       <c r="D21" t="n">
-        <v>344.64</v>
+        <v>546.38</v>
       </c>
       <c r="E21" t="n">
-        <v>7.816</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>399.12</v>
+        <v>546.38</v>
       </c>
       <c r="D22" t="n">
-        <v>462.02</v>
+        <v>617.64</v>
       </c>
       <c r="E22" t="n">
-        <v>0.848</v>
+        <v>27.024</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>462.02</v>
+        <v>353.68</v>
       </c>
       <c r="D23" t="n">
-        <v>571.62</v>
+        <v>433.28</v>
       </c>
       <c r="E23" t="n">
-        <v>30</v>
+        <v>2.512</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>344.64</v>
+        <v>617.64</v>
       </c>
       <c r="D24" t="n">
-        <v>414.44</v>
+        <v>663.04</v>
       </c>
       <c r="E24" t="n">
-        <v>3.436</v>
+        <v>24.604</v>
       </c>
     </row>
     <row r="25">
@@ -903,55 +903,55 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>271.86</v>
+        <v>433.28</v>
       </c>
       <c r="D25" t="n">
-        <v>329.46</v>
+        <v>507.84</v>
       </c>
       <c r="E25" t="n">
-        <v>10.844</v>
+        <v>0.136</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>628.47</v>
+        <v>507.84</v>
       </c>
       <c r="D26" t="n">
-        <v>675.45</v>
+        <v>608.97</v>
       </c>
       <c r="E26" t="n">
-        <v>27.492</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>477.58</v>
+        <v>337.7</v>
       </c>
       <c r="D27" t="n">
-        <v>536.34</v>
+        <v>373.1</v>
       </c>
       <c r="E27" t="n">
-        <v>0.256</v>
+        <v>6.62</v>
       </c>
     </row>
     <row r="28">
@@ -960,193 +960,193 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>536.34</v>
+        <v>418.72</v>
       </c>
       <c r="D28" t="n">
-        <v>637.33</v>
+        <v>489.62</v>
       </c>
       <c r="E28" t="n">
-        <v>30</v>
+        <v>1.528</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>675.45</v>
+        <v>489.62</v>
       </c>
       <c r="D29" t="n">
-        <v>740.55</v>
+        <v>568.26</v>
       </c>
       <c r="E29" t="n">
-        <v>24.112</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>474.14</v>
+        <v>455.28</v>
       </c>
       <c r="D30" t="n">
-        <v>532.08</v>
+        <v>516.78</v>
       </c>
       <c r="E30" t="n">
-        <v>0.352</v>
+        <v>2.832</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>532.08</v>
+        <v>373.1</v>
       </c>
       <c r="D31" t="n">
-        <v>608.1799999999999</v>
+        <v>438.76</v>
       </c>
       <c r="E31" t="n">
-        <v>30</v>
+        <v>3.164</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>571.62</v>
+        <v>608.97</v>
       </c>
       <c r="D32" t="n">
-        <v>636.1</v>
+        <v>682.3099999999999</v>
       </c>
       <c r="E32" t="n">
-        <v>27.192</v>
+        <v>27.296</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>608.1799999999999</v>
+        <v>516.78</v>
       </c>
       <c r="D33" t="n">
-        <v>672.24</v>
+        <v>602.62</v>
       </c>
       <c r="E33" t="n">
-        <v>27.264</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>672.24</v>
+        <v>602.62</v>
       </c>
       <c r="D34" t="n">
-        <v>747.1</v>
+        <v>696.92</v>
       </c>
       <c r="E34" t="n">
-        <v>24.888</v>
+        <v>25.2</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>637.33</v>
+        <v>696.92</v>
       </c>
       <c r="D35" t="n">
-        <v>700.33</v>
+        <v>740.36</v>
       </c>
       <c r="E35" t="n">
-        <v>27.36</v>
+        <v>22.496</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>329.46</v>
+        <v>568.26</v>
       </c>
       <c r="D36" t="n">
-        <v>384.86</v>
+        <v>612.1</v>
       </c>
       <c r="E36" t="n">
-        <v>6.924</v>
+        <v>27.296</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>747.1</v>
+        <v>438.76</v>
       </c>
       <c r="D37" t="n">
-        <v>777.26</v>
+        <v>483.22</v>
       </c>
       <c r="E37" t="n">
-        <v>22.512</v>
+        <v>0.348</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1154,10 +1154,10 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>414.44</v>
+        <v>483.22</v>
       </c>
       <c r="D38" t="n">
-        <v>474.57</v>
+        <v>564.22</v>
       </c>
       <c r="E38" t="n">
         <v>30</v>
@@ -1165,135 +1165,116 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>474.57</v>
+        <v>612.1</v>
       </c>
       <c r="D39" t="n">
-        <v>541.21</v>
+        <v>677.1</v>
       </c>
       <c r="E39" t="n">
-        <v>26.516</v>
+        <v>23.916</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>700.33</v>
+        <v>663.04</v>
       </c>
       <c r="D40" t="n">
-        <v>768.15</v>
+        <v>708.1</v>
       </c>
       <c r="E40" t="n">
-        <v>24.188</v>
+        <v>22.228</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>636.1</v>
+        <v>427.72</v>
       </c>
       <c r="D41" t="n">
-        <v>681.42</v>
+        <v>470.74</v>
       </c>
       <c r="E41" t="n">
-        <v>24.28</v>
+        <v>0.096</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>681.42</v>
+        <v>470.74</v>
       </c>
       <c r="D42" t="n">
-        <v>731.72</v>
+        <v>547.45</v>
       </c>
       <c r="E42" t="n">
-        <v>21.86</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>384.86</v>
+        <v>564.22</v>
       </c>
       <c r="D43" t="n">
-        <v>430.86</v>
+        <v>622.22</v>
       </c>
       <c r="E43" t="n">
-        <v>3.964</v>
+        <v>27.36</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>430.86</v>
+        <v>547.45</v>
       </c>
       <c r="D44" t="n">
-        <v>498.7</v>
+        <v>608.05</v>
       </c>
       <c r="E44" t="n">
-        <v>1.26</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>6</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>depot2</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>498.7</v>
-      </c>
-      <c r="D45" t="n">
-        <v>597.48</v>
-      </c>
-      <c r="E45" t="n">
-        <v>30</v>
+        <v>25.62</v>
       </c>
     </row>
   </sheetData>
